--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - PoS 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - PoS 2019.xlsx
@@ -1213,7 +1213,7 @@
     <t xml:space="preserve">Активация Зоны кассы: Продукт</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation Café zone</t>
+    <t xml:space="preserve">Activation Cafe zone</t>
   </si>
   <si>
     <t xml:space="preserve">Coke and meal</t>
@@ -2839,7 +2839,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2863,24 +2863,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2896,19 +2878,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2921,18 +2897,18 @@
   <dimension ref="A1:F2008"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B480" activeCellId="0" sqref="B480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="112.178571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="110.826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - PoS 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/KPIs for DB - PoS 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,13 +20,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$2014</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$2014</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -2816,20 +2817,20 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,20 +2920,20 @@
   </sheetPr>
   <dimension ref="1:2014"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1956" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1986" activeCellId="0" sqref="A1986"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1776" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1793" activeCellId="0" sqref="B1793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44250,7 +44251,7 @@
         <v>7</v>
       </c>
       <c r="B1794" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1794" s="0" t="n">
         <v>0.0625</v>
@@ -44273,7 +44274,7 @@
         <v>7</v>
       </c>
       <c r="B1795" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1795" s="0" t="n">
         <v>0.0625</v>
@@ -44296,7 +44297,7 @@
         <v>7</v>
       </c>
       <c r="B1796" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1796" s="0" t="n">
         <v>0.0625</v>
@@ -44319,7 +44320,7 @@
         <v>7</v>
       </c>
       <c r="B1797" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1797" s="0" t="n">
         <v>0.0625</v>
@@ -44342,7 +44343,7 @@
         <v>7</v>
       </c>
       <c r="B1798" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1798" s="0" t="n">
         <v>0.0625</v>
@@ -48692,7 +48693,7 @@
         <v>10</v>
       </c>
       <c r="B1987" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1987" s="0" t="n">
         <v>0.0625</v>
@@ -48715,7 +48716,7 @@
         <v>10</v>
       </c>
       <c r="B1988" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1988" s="0" t="n">
         <v>0.0625</v>
@@ -48738,7 +48739,7 @@
         <v>10</v>
       </c>
       <c r="B1989" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1989" s="0" t="n">
         <v>0.0625</v>
@@ -48761,7 +48762,7 @@
         <v>10</v>
       </c>
       <c r="B1990" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1990" s="0" t="n">
         <v>0.0625</v>
@@ -48784,7 +48785,7 @@
         <v>10</v>
       </c>
       <c r="B1991" s="0" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C1991" s="0" t="n">
         <v>0.0625</v>
